--- a/storage/app/report-template/vehicle-cost-report.xlsx
+++ b/storage/app/report-template/vehicle-cost-report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Educo/htdocs/Project/Fariz/jmp-tracking-ho-be/storage/app/report-template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farizhermawan/other/jmp-tracking-ho-be/storage/app/report-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC30D1D-1BFE-DB4D-9A7A-FD2ED98E93A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E73E5F-6DA8-B147-8E03-0B40E0E80D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
